--- a/Costi e Ricavi.xlsx
+++ b/Costi e Ricavi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rudy\Progetto gestione\StartupDesignLab-B-Real\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2B9F9E-430A-49B5-8A4D-2FAB2154D1DA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE81EE7-2E8E-4C6D-8FD8-1D42CBBF116B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANNO 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="93">
   <si>
     <t>COSTI ANNO 1</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>(x 8 prodotti)</t>
+  </si>
+  <si>
+    <t>coworking</t>
   </si>
 </sst>
 </file>
@@ -807,10 +810,10 @@
                   <c:v>117203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>436163</c:v>
+                  <c:v>420463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>679383</c:v>
+                  <c:v>690883</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1325283</c:v>
@@ -1377,16 +1380,16 @@
                   <c:v>-17013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-116903</c:v>
+                  <c:v>-117203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-396903</c:v>
+                  <c:v>-420463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-679083</c:v>
+                  <c:v>-690883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1324983</c:v>
+                  <c:v>-1325283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1743,13 +1746,13 @@
                   <c:v>15784</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29621</c:v>
+                  <c:v>45321</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100238</c:v>
+                  <c:v>104438</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>274955</c:v>
+                  <c:v>279155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4518,7 +4521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA967C84-4B8F-44E2-85F4-D0AD393A93F8}">
   <dimension ref="C2:J54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -5013,8 +5016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CC4158-9D4B-44D9-9B3D-2AC0C9797405}">
   <dimension ref="C2:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5154,29 +5157,21 @@
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D16" s="8">
-        <v>7200</v>
+        <v>3000</v>
       </c>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="8">
-        <v>1500</v>
-      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="8">
-        <v>10000</v>
-      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
@@ -5379,8 +5374,8 @@
         <v>30</v>
       </c>
       <c r="D41" s="2">
-        <f>SUM(E5,E6,E7,E8,E9,E10,E11,E12,D16,D19,D23,D27,D28,D18,D17)</f>
-        <v>216483</v>
+        <f>SUM(E5,E6,E7,E8,E9,E10,E11,E12,D16,D19,D23,D27,D28)</f>
+        <v>200783</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -5420,7 +5415,7 @@
       </c>
       <c r="D44" s="2">
         <f>SUM(D41:D42)</f>
-        <v>436163</v>
+        <v>420463</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -5502,7 +5497,7 @@
       </c>
       <c r="D52" s="2">
         <f>SUM(D47,-D44)</f>
-        <v>-36163</v>
+        <v>-20463</v>
       </c>
       <c r="E52" s="23"/>
     </row>
@@ -5512,7 +5507,7 @@
       </c>
       <c r="D53" s="2">
         <f>SUM(D49,D51,D52)</f>
-        <v>29621</v>
+        <v>45321</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>50</v>
@@ -5530,7 +5525,7 @@
       </c>
       <c r="D56" s="2">
         <f>D44/D46</f>
-        <v>54520.375</v>
+        <v>52557.875</v>
       </c>
       <c r="F56" s="8"/>
     </row>
@@ -5540,7 +5535,7 @@
       </c>
       <c r="D58" s="2">
         <f>D47-D44+D27</f>
-        <v>-35063</v>
+        <v>-19363</v>
       </c>
     </row>
   </sheetData>
@@ -5550,10 +5545,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8565FF41-660E-416E-A437-DBF6B7CF7B7E}">
-  <dimension ref="C2:J56"/>
+  <dimension ref="C2:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5681,6 +5676,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" s="10" t="s">
@@ -5690,6 +5686,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
@@ -5699,192 +5696,189 @@
         <v>7200</v>
       </c>
       <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D19" s="8">
         <v>1153</v>
       </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="7" t="s">
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D23" s="8">
         <v>30</v>
       </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="7" t="s">
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D27" s="8">
         <v>1100</v>
       </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="12" t="s">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D31" s="13">
         <v>3000</v>
       </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="14" t="s">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D32" s="15">
         <v>24460</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E32" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F32" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G32" s="18">
         <v>22500</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F31" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="20">
-        <v>160</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="20">
-        <v>300</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F33" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="22">
-        <v>1500</v>
+      <c r="F33" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="20">
+        <v>160</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F34" s="24"/>
-      <c r="G34" s="8"/>
+      <c r="F34" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="20">
+        <v>300</v>
+      </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="2">
-        <v>50000</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="16"/>
+      <c r="F35" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="22">
+        <v>1500</v>
+      </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F36" s="8"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D37" s="2">
-        <f>SUM(D29:D30)</f>
-        <v>27460</v>
-      </c>
-      <c r="E37" s="23"/>
+        <v>50000</v>
+      </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C38" s="1"/>
-      <c r="E38" s="23"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -5893,12 +5887,13 @@
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
-        <f>SUM(E5,E6,E7,E8,E9,E10,E11,E12,D16,D17,D21,D25)</f>
-        <v>267483</v>
-      </c>
+        <f>SUM(D31:D32)</f>
+        <v>27460</v>
+      </c>
+      <c r="E39" s="23"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -5906,16 +5901,8 @@
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="2">
-        <f>(SUM(D29:D30))*D44</f>
-        <v>411900</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>62</v>
-      </c>
+      <c r="C40" s="1"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -5923,8 +5910,13 @@
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C41" s="1"/>
-      <c r="E41" s="23"/>
+      <c r="C41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="2">
+        <f>SUM(E5,E6,E7,E8,E9,E10,E11,E12,D16,D19,D23,D27,D17,D18)</f>
+        <v>278983</v>
+      </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -5933,11 +5925,14 @@
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
-        <f>SUM(D39:D40)</f>
-        <v>679383</v>
+        <f>(SUM(D31:D32))*D46</f>
+        <v>411900</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -5947,6 +5942,7 @@
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -5955,10 +5951,11 @@
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
-        <v>15</v>
+        <f>SUM(D41:D42)</f>
+        <v>690883</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -5967,97 +5964,118 @@
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C45" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="2">
-        <f>PRODUCT(D35,D44)</f>
-        <v>750000</v>
-      </c>
-      <c r="E45" s="23"/>
+      <c r="C45" s="1"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C46" s="1"/>
-      <c r="E46" s="23"/>
+      <c r="C46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="2">
+        <v>15</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D47" s="2">
-        <v>0</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>63</v>
-      </c>
+        <f>PRODUCT(D37,D46)</f>
+        <v>750000</v>
+      </c>
+      <c r="E47" s="23"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C48" s="1"/>
       <c r="E48" s="23"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D49" s="2">
-        <v>29621</v>
-      </c>
-      <c r="E49" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>63</v>
+      </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="2">
-        <f>SUM(D45, -D42)</f>
-        <v>70617</v>
-      </c>
       <c r="E50" s="23"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="2">
+        <v>45321</v>
+      </c>
+      <c r="E51" s="23"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="2">
+        <f>SUM(D47, -D44)</f>
+        <v>59117</v>
+      </c>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C53" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="2">
-        <f>SUM(D47,D49,D50)</f>
-        <v>100238</v>
-      </c>
-      <c r="E51" s="23" t="s">
+      <c r="D53" s="2">
+        <f>SUM(D49,D51,D52)</f>
+        <v>104438</v>
+      </c>
+      <c r="E53" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E52" s="23"/>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E53" s="23"/>
-    </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C54" s="2" t="s">
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C56" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="2">
-        <f>D42/D44</f>
-        <v>45292.2</v>
-      </c>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="2">
+        <f>D44/D46</f>
+        <v>46058.866666666669</v>
+      </c>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C58" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="2">
-        <f>D45-D42+D25</f>
-        <v>71717</v>
+      <c r="D58" s="2">
+        <f>D47-D44+D27</f>
+        <v>60217</v>
       </c>
     </row>
   </sheetData>
@@ -6069,8 +6087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F10B7CB-8681-4294-A7BC-A3E9D5C634C6}">
   <dimension ref="C2:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6117,7 +6135,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E6" s="9">
         <v>30000</v>
@@ -6535,7 +6553,7 @@
         <v>81</v>
       </c>
       <c r="D50" s="2">
-        <v>100238</v>
+        <v>104438</v>
       </c>
       <c r="E50" s="23"/>
       <c r="I50" s="8"/>
@@ -6557,7 +6575,7 @@
       </c>
       <c r="D52" s="2">
         <f>SUM(D48,D50,D51)</f>
-        <v>274955</v>
+        <v>279155</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>50</v>
@@ -6597,8 +6615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963C9AE4-4D88-42BA-90F4-1F4D6BAE1C94}">
   <dimension ref="B3:P17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6688,28 +6706,28 @@
         <v>117203</v>
       </c>
       <c r="F8" s="2">
-        <v>436163</v>
+        <v>420463</v>
       </c>
       <c r="G8" s="2">
-        <v>679383</v>
+        <v>690883</v>
       </c>
       <c r="H8" s="2">
         <v>1325283</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="2">
         <v>-17013</v>
       </c>
-      <c r="K8" s="28">
-        <v>-116903</v>
-      </c>
-      <c r="L8" s="28">
-        <v>-396903</v>
-      </c>
-      <c r="M8" s="28">
-        <v>-679083</v>
+      <c r="K8" s="2">
+        <v>-117203</v>
+      </c>
+      <c r="L8" s="2">
+        <v>-420463</v>
+      </c>
+      <c r="M8" s="2">
+        <v>-690883</v>
       </c>
       <c r="N8" s="2">
-        <v>-1324983</v>
+        <v>-1325283</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.3">
@@ -6767,13 +6785,13 @@
         <v>15784</v>
       </c>
       <c r="F11" s="2">
-        <v>29621</v>
+        <v>45321</v>
       </c>
       <c r="G11" s="2">
-        <v>100238</v>
+        <v>104438</v>
       </c>
       <c r="H11" s="2">
-        <v>274955</v>
+        <v>279155</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">

--- a/Costi e Ricavi.xlsx
+++ b/Costi e Ricavi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rudy\Progetto gestione\StartupDesignLab-B-Real\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE81EE7-2E8E-4C6D-8FD8-1D42CBBF116B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48C0CE1-3F75-408E-8EB6-0FFE24168B0D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" tabRatio="780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANNO 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="99">
   <si>
     <t>COSTI ANNO 1</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Risorse Fisiche</t>
   </si>
   <si>
-    <t>Coworking</t>
-  </si>
-  <si>
     <t>Licenza Optitex</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
   </si>
   <si>
     <t>Altri costi fissi</t>
-  </si>
-  <si>
-    <t>Burocrazia (notaio, tasse,…)</t>
   </si>
   <si>
     <t>Costo</t>
@@ -209,9 +203,6 @@
     <t>(soldi che ci rimangono per l'anno successivo)</t>
   </si>
   <si>
-    <t>(2° round)</t>
-  </si>
-  <si>
     <t>COSTI ANNO 3</t>
   </si>
   <si>
@@ -228,9 +219,6 @@
   </si>
   <si>
     <t>Corso Marketing</t>
-  </si>
-  <si>
-    <t>(round unico)</t>
   </si>
   <si>
     <t>RICAVI dalle vendite</t>
@@ -254,12 +242,6 @@
     <t>COSTI ANNO 4</t>
   </si>
   <si>
-    <t>(x 15 prodotti)</t>
-  </si>
-  <si>
-    <t>(non ci facciamo investire da nessuno)</t>
-  </si>
-  <si>
     <t>COSTI ANNO 5</t>
   </si>
   <si>
@@ -267,9 +249,6 @@
   </si>
   <si>
     <t>5 persone</t>
-  </si>
-  <si>
-    <t>(x 30 prodotti)</t>
   </si>
   <si>
     <r>
@@ -313,9 +292,6 @@
     <t>ricavi</t>
   </si>
   <si>
-    <t>prezzo per unità di prodotto</t>
-  </si>
-  <si>
     <t>fondi (investimento)</t>
   </si>
   <si>
@@ -376,7 +352,49 @@
     <t>(x 8 prodotti)</t>
   </si>
   <si>
-    <t>coworking</t>
+    <t>Incubatore</t>
+  </si>
+  <si>
+    <t>(ci si arrangia)</t>
+  </si>
+  <si>
+    <t>addetto marketing</t>
+  </si>
+  <si>
+    <t>Costi di consegna</t>
+  </si>
+  <si>
+    <t>Costo per unità</t>
+  </si>
+  <si>
+    <t>Annunci web</t>
+  </si>
+  <si>
+    <t>1 addetto marketing che parla direttamente con le aziende ci sta perché quello dell'incubatore penso riguardi + le pubblicità</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Costo annuo</t>
+  </si>
+  <si>
+    <t>(round 2)</t>
+  </si>
+  <si>
+    <t>Costo annuale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Costo annuale</t>
+  </si>
+  <si>
+    <t>Partecipazione a fiera tecnologica</t>
+  </si>
+  <si>
+    <t>(x 16 prodotti)</t>
+  </si>
+  <si>
+    <t>(x 35 prodotti)</t>
+  </si>
+  <si>
+    <t>3o  round e ultimo (totale 100 mila)</t>
   </si>
 </sst>
 </file>
@@ -578,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,6 +679,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,10 +810,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -801,22 +822,22 @@
             <c:numRef>
               <c:f>GRAFICI!$D$8:$H$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>17013</c:v>
+                  <c:v>13813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117203</c:v>
+                  <c:v>110703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>420463</c:v>
+                  <c:v>385163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>690883</c:v>
+                  <c:v>721843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1325283</c:v>
+                  <c:v>1482333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,7 +884,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F2E6-497B-9DB7-6E109CC6416E}"/>
+                <c16:uniqueId val="{00000001-7A2D-42BB-AA42-602556500004}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -883,10 +904,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,22 +916,22 @@
             <c:numRef>
               <c:f>GRAFICI!$D$9:$H$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000</c:v>
+                  <c:v>94000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400000</c:v>
+                  <c:v>376000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750000</c:v>
+                  <c:v>752000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500000</c:v>
+                  <c:v>1645000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +939,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F2E6-497B-9DB7-6E109CC6416E}"/>
+              <c16:uniqueId val="{00000002-8F30-468B-8D56-74DD023274DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -930,21 +951,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="654559368"/>
         <c:axId val="654599712"/>
@@ -1138,7 +1144,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1199,7 +1205,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.82181356466721589"/>
           <c:y val="0.7447515526344366"/>
-          <c:w val="0.12837184494004675"/>
+          <c:w val="0.12314954666869567"/>
           <c:h val="9.7759119733455732E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1374,22 +1380,22 @@
             <c:numRef>
               <c:f>GRAFICI!$J$8:$N$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-17013</c:v>
+                  <c:v>-13813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-117203</c:v>
+                  <c:v>-110703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-420463</c:v>
+                  <c:v>-385163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-690883</c:v>
+                  <c:v>-721843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1325283</c:v>
+                  <c:v>-1482333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1474,22 +1480,22 @@
             <c:numRef>
               <c:f>GRAFICI!$D$9:$H$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000</c:v>
+                  <c:v>94000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400000</c:v>
+                  <c:v>376000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>750000</c:v>
+                  <c:v>752000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500000</c:v>
+                  <c:v>1645000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,8 +1527,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.3294900254225712E-3"/>
-                  <c:y val="-3.0780027882065832E-2"/>
+                  <c:x val="-3.5517588816552479E-3"/>
+                  <c:y val="7.4017470714509925E-5"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1543,8 +1549,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.9884700762677135E-3"/>
-                  <c:y val="-4.836861524324626E-2"/>
+                  <c:x val="2.7681696142626889E-3"/>
+                  <c:y val="-2.1628326048740099E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1565,8 +1571,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.9769401525353282E-3"/>
-                  <c:y val="-2.6382881041770643E-2"/>
+                  <c:x val="3.0957301062970858E-3"/>
+                  <c:y val="-2.8439876920445632E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1619,17 +1625,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:srgbClr val="0070C0"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1637,22 +1633,22 @@
             <c:numRef>
               <c:f>GRAFICI!$D$10:$H$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>25000</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1737,22 +1733,22 @@
             <c:numRef>
               <c:f>GRAFICI!$D$11:$H$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7987</c:v>
+                  <c:v>-13813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15784</c:v>
+                  <c:v>13297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45321</c:v>
+                  <c:v>54134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104438</c:v>
+                  <c:v>104291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>279155</c:v>
+                  <c:v>266958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,8 +1793,8 @@
         <c:axId val="654569536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1510000"/>
-          <c:min val="-1350000"/>
+          <c:max val="1700000.0000000002"/>
+          <c:min val="-1500000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1830,7 +1826,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3459,12 +3455,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.39957</cdr:x>
-      <cdr:y>0.63236</cdr:y>
+      <cdr:x>0.35694</cdr:x>
+      <cdr:y>0.69218</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.40041</cdr:x>
-      <cdr:y>0.88905</cdr:y>
+      <cdr:x>0.35914</cdr:x>
+      <cdr:y>0.89105</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3479,8 +3475,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3001563" y="3057153"/>
-          <a:ext cx="6250" cy="1240967"/>
+          <a:off x="2796478" y="3346384"/>
+          <a:ext cx="17238" cy="961432"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3510,12 +3506,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.39212</cdr:x>
-      <cdr:y>0.62385</cdr:y>
+      <cdr:x>0.34677</cdr:x>
+      <cdr:y>0.66703</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.40766</cdr:x>
-      <cdr:y>0.64841</cdr:y>
+      <cdr:x>0.36231</cdr:x>
+      <cdr:y>0.69159</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3530,8 +3526,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2945571" y="3016025"/>
-          <a:ext cx="116703" cy="118713"/>
+          <a:off x="2716840" y="3224794"/>
+          <a:ext cx="121749" cy="118735"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
           <a:avLst/>
@@ -3572,12 +3568,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.19534</cdr:x>
-      <cdr:y>0.42414</cdr:y>
+      <cdr:x>0.16716</cdr:x>
+      <cdr:y>0.47474</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.25851</cdr:x>
-      <cdr:y>0.49106</cdr:y>
+      <cdr:x>0.23033</cdr:x>
+      <cdr:y>0.54166</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3592,8 +3588,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1467341" y="2050496"/>
-          <a:ext cx="474590" cy="323522"/>
+          <a:off x="1309609" y="2295149"/>
+          <a:ext cx="494915" cy="323526"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3629,12 +3625,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.25955</cdr:x>
-      <cdr:y>0.45688</cdr:y>
+      <cdr:x>0.23022</cdr:x>
+      <cdr:y>0.50861</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.33314</cdr:x>
-      <cdr:y>0.45741</cdr:y>
+      <cdr:x>0.28371</cdr:x>
+      <cdr:y>0.50934</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3648,9 +3644,9 @@
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1949712" y="2208780"/>
-          <a:ext cx="552813" cy="2565"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="1803706" y="2458879"/>
+          <a:ext cx="419031" cy="3518"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3680,12 +3676,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33101</cdr:x>
-      <cdr:y>0.45851</cdr:y>
+      <cdr:x>0.28256</cdr:x>
+      <cdr:y>0.51046</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.3944</cdr:x>
-      <cdr:y>0.62745</cdr:y>
+      <cdr:x>0.34905</cdr:x>
+      <cdr:y>0.67063</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3702,8 +3698,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2486542" y="2216694"/>
-          <a:ext cx="476121" cy="816716"/>
+          <a:off x="2213772" y="2467843"/>
+          <a:ext cx="520898" cy="774339"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -4035,7 +4031,7 @@
   <dimension ref="C2:J54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4136,22 +4132,23 @@
         <v>12</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D13" s="8">
-        <v>3000</v>
+        <f>7200/4</f>
+        <v>1800</v>
       </c>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="8">
         <v>1153</v>
@@ -4170,16 +4167,16 @@
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="8">
         <v>200</v>
@@ -4188,7 +4185,7 @@
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="8">
         <v>30</v>
@@ -4207,19 +4204,17 @@
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C23" s="7"/>
       <c r="D23" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E23" s="9"/>
     </row>
@@ -4235,16 +4230,16 @@
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C26" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C27" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="13">
         <v>1250</v>
@@ -4253,16 +4248,16 @@
     </row>
     <row r="28" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D28" s="15">
         <v>9380</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G28" s="18">
         <v>7500</v>
@@ -4272,7 +4267,7 @@
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F29" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G29" s="20">
         <v>80</v>
@@ -4282,7 +4277,7 @@
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F30" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G30" s="20">
         <v>300</v>
@@ -4292,7 +4287,7 @@
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F31" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G31" s="22">
         <v>1500</v>
@@ -4308,10 +4303,10 @@
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2">
-        <v>50000</v>
+        <v>47000</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="16"/>
@@ -4327,14 +4322,14 @@
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2">
         <f>SUM(D27:D28)</f>
         <v>10630</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -4353,11 +4348,11 @@
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <f>SUM(E5:E9,D13:D14,D18:D19,D23)</f>
-        <v>6383</v>
+        <v>3183</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -4367,14 +4362,14 @@
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <f>(SUM(D27:D28))</f>
         <v>10630</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -4393,11 +4388,11 @@
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
         <f>SUM(D37:D38)</f>
-        <v>17013</v>
+        <v>13813</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -4423,7 +4418,7 @@
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -4436,7 +4431,7 @@
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D44" s="2">
         <f>PRODUCT(D33,D43)</f>
@@ -4452,13 +4447,13 @@
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D46" s="2">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -4469,25 +4464,26 @@
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D48" s="2">
-        <v>-17013</v>
+        <f>-13813</f>
+        <v>-13813</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D49" s="2">
         <f>SUM(D46:D48)</f>
-        <v>7987</v>
+        <v>-13813</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.3">
@@ -4498,13 +4494,13 @@
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F52" s="8"/>
     </row>
@@ -4519,10 +4515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA967C84-4B8F-44E2-85F4-D0AD393A93F8}">
-  <dimension ref="C2:J54"/>
+  <dimension ref="C2:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4537,7 +4533,7 @@
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4569,7 +4565,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
@@ -4610,13 +4606,17 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="E10" s="9">
-        <v>57000</v>
+        <f>57000/2</f>
+        <v>28500</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
@@ -4634,22 +4634,23 @@
         <v>12</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" s="7" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D14" s="8">
-        <v>3000</v>
+        <f>7200/2</f>
+        <v>3600</v>
       </c>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="8">
         <v>1153</v>
@@ -4668,16 +4669,16 @@
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="8">
         <v>30</v>
@@ -4685,8 +4686,12 @@
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="8">
+        <v>11000</v>
+      </c>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.3">
@@ -4696,25 +4701,29 @@
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D23" s="8">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="8">
+        <v>11000</v>
+      </c>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
@@ -4724,16 +4733,16 @@
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C26" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C27" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" s="13">
         <v>3000</v>
@@ -4742,16 +4751,16 @@
     </row>
     <row r="28" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="15">
         <v>24460</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G28" s="18">
         <v>22500</v>
@@ -4760,69 +4769,67 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F29" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="20">
-        <v>160</v>
-      </c>
+      <c r="C29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8">
+        <v>250</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F30" s="19" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G30" s="20">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F31" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="22">
-        <v>1500</v>
+      <c r="F31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="20">
+        <v>300</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F32" s="24"/>
-      <c r="G32" s="8"/>
+      <c r="F32" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="22">
+        <v>1500</v>
+      </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="2">
-        <v>50000</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="16"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="2">
+        <v>47000</v>
+      </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="G34" s="16"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="2">
-        <f>SUM(D27:D28)</f>
-        <v>27460</v>
-      </c>
-      <c r="E35" s="23"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -4830,7 +4837,13 @@
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="2">
+        <f>SUM(D27:D28)</f>
+        <v>27460</v>
+      </c>
       <c r="E36" s="23"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -4839,13 +4852,8 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="2">
-        <f>SUM(E5:E10,D14:D15,D19:D19,D23)</f>
-        <v>62283</v>
-      </c>
+      <c r="C37" s="1"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -4854,14 +4862,11 @@
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
-        <f>(SUM(D27:D28))*D42</f>
-        <v>54920</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>47</v>
+        <f>SUM(E5:E10,D14:D15,D19:D20,D23:D24)</f>
+        <v>55283</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -4870,8 +4875,16 @@
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C39" s="1"/>
-      <c r="E39" s="23"/>
+      <c r="C39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="2">
+        <f>(SUM(D27:D29))*D43</f>
+        <v>55420</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>45</v>
+      </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -4879,13 +4892,8 @@
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="2">
-        <f>SUM(D37:D38)</f>
-        <v>117203</v>
-      </c>
+      <c r="C40" s="1"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -4893,7 +4901,13 @@
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="2">
+        <f>SUM(D38:D39)</f>
+        <v>110703</v>
+      </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -4901,12 +4915,7 @@
       <c r="J41" s="8"/>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2</v>
-      </c>
+      <c r="C42" s="1"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -4915,96 +4924,109 @@
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
-        <f>PRODUCT(D33,D42)</f>
-        <v>100000</v>
-      </c>
-      <c r="E43" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="2">
+        <f>PRODUCT(D34,D43)</f>
+        <v>94000</v>
+      </c>
       <c r="E44" s="23"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="2">
-        <v>25000</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>51</v>
-      </c>
+      <c r="C45" s="1"/>
+      <c r="E45" s="23"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E46" s="23"/>
+      <c r="C46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C47" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="2">
-        <v>7987</v>
-      </c>
       <c r="E47" s="23"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D48" s="2">
-        <f>SUM(D43,-D40)</f>
-        <v>-17203</v>
+        <v>0</v>
       </c>
       <c r="E48" s="23"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D49" s="2">
-        <f>SUM(D45,D47,D48)</f>
-        <v>15784</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>50</v>
-      </c>
+        <f>SUM(D44,-D41)</f>
+        <v>-16703</v>
+      </c>
+      <c r="E49" s="23"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E50" s="23"/>
+      <c r="C50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="2">
+        <f>SUM(D46,D48,D49)</f>
+        <v>13297</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E51" s="23"/>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C52" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="25">
-        <f>D40/D42</f>
-        <v>58601.5</v>
-      </c>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="2">
-        <f>D43-D40+D23</f>
-        <v>-16103</v>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="25">
+        <f>D41/D43</f>
+        <v>55351.5</v>
+      </c>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="2">
+        <f>D44-D41+D23</f>
+        <v>-16703</v>
       </c>
     </row>
   </sheetData>
@@ -5014,10 +5036,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CC4158-9D4B-44D9-9B3D-2AC0C9797405}">
-  <dimension ref="C2:J58"/>
+  <dimension ref="C2:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5032,7 +5054,7 @@
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -5056,7 +5078,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="9">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
@@ -5064,10 +5086,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="9">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
@@ -5078,7 +5100,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="9">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
@@ -5086,10 +5108,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E8" s="9">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
@@ -5100,15 +5122,15 @@
         <v>11</v>
       </c>
       <c r="E9" s="9">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="9">
         <v>57000</v>
@@ -5116,7 +5138,7 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
@@ -5127,10 +5149,10 @@
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" s="9">
         <v>33000</v>
@@ -5151,209 +5173,221 @@
         <v>12</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D16" s="8">
-        <v>3000</v>
+        <v>7200</v>
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1500</v>
+      </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="8">
+        <v>10000</v>
+      </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="8">
         <v>1153</v>
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="8">
         <v>30</v>
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="8">
+        <v>11000</v>
+      </c>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8">
         <v>1100</v>
       </c>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D28" s="8">
         <v>500</v>
       </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="8">
+        <v>11000</v>
+      </c>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>22</v>
-      </c>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="12" t="s">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="13">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="15">
+        <v>24460</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="13">
-        <v>3000</v>
-      </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="15">
-        <v>24460</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="18">
+      <c r="G33" s="18">
         <v>22500</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F33" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="20">
-        <v>160</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C34" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="8">
+        <v>250</v>
+      </c>
       <c r="F34" s="19" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G34" s="20">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F35" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="22">
-        <v>1500</v>
+      <c r="F35" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="20">
+        <v>300</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F36" s="24"/>
-      <c r="G36" s="8"/>
+      <c r="F36" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="22">
+        <v>1500</v>
+      </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="2">
-        <v>50000</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="16"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="2">
+        <v>47000</v>
+      </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="G38" s="16"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="2">
-        <f>SUM(D31:D32)</f>
-        <v>27460</v>
-      </c>
-      <c r="E39" s="23"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -5361,7 +5395,13 @@
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="2">
+        <f>SUM(D32:D33)</f>
+        <v>27460</v>
+      </c>
       <c r="E40" s="23"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -5370,13 +5410,8 @@
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="2">
-        <f>SUM(E5,E6,E7,E8,E9,E10,E11,E12,D16,D19,D23,D27,D28)</f>
-        <v>200783</v>
-      </c>
+      <c r="C41" s="1"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -5385,14 +5420,11 @@
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
-        <f>(SUM(D31:D32))*D46</f>
-        <v>219680</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>91</v>
+        <f>SUM(E5,E6,E7,E8,E9,E10,E11,E12,D16:D18,D19,D23:D24,D27,D28:D29)</f>
+        <v>163483</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -5401,8 +5433,16 @@
       <c r="J42" s="8"/>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C43" s="1"/>
-      <c r="E43" s="23"/>
+      <c r="C43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="2">
+        <f>(SUM(D32:D34))*D47</f>
+        <v>221680</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>83</v>
+      </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -5410,13 +5450,8 @@
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="2">
-        <f>SUM(D41:D42)</f>
-        <v>420463</v>
-      </c>
+      <c r="C44" s="1"/>
+      <c r="E44" s="23"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -5424,7 +5459,13 @@
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="2">
+        <f>SUM(D42:D43)</f>
+        <v>385163</v>
+      </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -5432,12 +5473,7 @@
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="2">
-        <v>8</v>
-      </c>
+      <c r="C46" s="1"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -5446,96 +5482,109 @@
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
-        <f>PRODUCT(D37,D46)</f>
-        <v>400000</v>
-      </c>
-      <c r="E47" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="2">
+        <f>PRODUCT(D38,D47)</f>
+        <v>376000</v>
+      </c>
       <c r="E48" s="23"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C49" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>58</v>
-      </c>
+      <c r="C49" s="1"/>
+      <c r="E49" s="23"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E50" s="23"/>
+      <c r="C50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="2">
-        <v>15784</v>
-      </c>
       <c r="E51" s="23"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D52" s="2">
-        <f>SUM(D47,-D44)</f>
-        <v>-20463</v>
+        <v>13297</v>
       </c>
       <c r="E52" s="23"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D53" s="2">
-        <f>SUM(D49,D51,D52)</f>
-        <v>45321</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>50</v>
-      </c>
+        <f>SUM(D48,-D45)</f>
+        <v>-9163</v>
+      </c>
+      <c r="E53" s="23"/>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E54" s="23"/>
+      <c r="C54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="2">
+        <f>SUM(D50,D52,D53)</f>
+        <v>54134</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E55" s="23"/>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C56" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="2">
-        <f>D44/D46</f>
-        <v>52557.875</v>
-      </c>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C58" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="2">
-        <f>D47-D44+D27</f>
-        <v>-19363</v>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="2">
+        <f>D45/D47</f>
+        <v>48145.375</v>
+      </c>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="2">
+        <f>D48-D45+D27</f>
+        <v>-8063</v>
       </c>
     </row>
   </sheetData>
@@ -5545,10 +5594,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8565FF41-660E-416E-A437-DBF6B7CF7B7E}">
-  <dimension ref="C2:J58"/>
+  <dimension ref="C2:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5563,7 +5612,7 @@
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -5595,7 +5644,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="9">
         <v>15000</v>
@@ -5617,7 +5666,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E8" s="9">
         <v>15000</v>
@@ -5636,10 +5685,10 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="9">
         <v>57000</v>
@@ -5647,7 +5696,7 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
@@ -5658,10 +5707,10 @@
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" s="9">
         <v>66000</v>
@@ -5683,14 +5732,14 @@
         <v>12</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D16" s="8">
         <v>7200</v>
@@ -5700,185 +5749,199 @@
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D17" s="8">
-        <v>1500</v>
+        <v>1153</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="8">
-        <v>10000</v>
-      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1153</v>
-      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8">
+        <v>30</v>
+      </c>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>17</v>
+      <c r="C22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="8">
+        <v>11000</v>
       </c>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="8">
-        <v>30</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
+      <c r="D24" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1100</v>
+      </c>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1100</v>
-      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="E28" s="9"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="13">
+        <v>3000</v>
+      </c>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="9"/>
+    <row r="30" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="15">
+        <v>24460</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="18">
+        <v>22500</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="13">
-        <v>3000</v>
-      </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="14" t="s">
+      <c r="C31" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="8">
+        <v>250</v>
+      </c>
+      <c r="F31" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="15">
-        <v>24460</v>
-      </c>
-      <c r="E32" s="15" t="s">
+      <c r="G31" s="20">
+        <v>160</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="F32" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="18">
-        <v>22500</v>
+      <c r="G32" s="20">
+        <v>300</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F33" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="20">
-        <v>160</v>
+      <c r="F33" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="22">
+        <v>1500</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F34" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="20">
-        <v>300</v>
-      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F35" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="22">
-        <v>1500</v>
-      </c>
+      <c r="C35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="2">
+        <v>47000</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="16"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F36" s="24"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
-        <v>50000</v>
-      </c>
+        <f>SUM(D29:D30)</f>
+        <v>27460</v>
+      </c>
+      <c r="E37" s="23"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="16"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C38" s="1"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -5887,13 +5950,12 @@
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
-        <f>SUM(D31:D32)</f>
-        <v>27460</v>
-      </c>
-      <c r="E39" s="23"/>
+        <f>SUM(E5,E6,E7,E8,E9,E10,E11,E12,D16,D17,D21,D25,D22)</f>
+        <v>278483</v>
+      </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -5901,8 +5963,16 @@
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C40" s="1"/>
-      <c r="E40" s="23"/>
+      <c r="C40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="2">
+        <f>(SUM(D29:D31))*D44</f>
+        <v>443360</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -5910,13 +5980,8 @@
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="2">
-        <f>SUM(E5,E6,E7,E8,E9,E10,E11,E12,D16,D19,D23,D27,D17,D18)</f>
-        <v>278983</v>
-      </c>
+      <c r="C41" s="1"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -5925,14 +5990,11 @@
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
-        <f>(SUM(D31:D32))*D46</f>
-        <v>411900</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>62</v>
+        <f>SUM(D39:D40)</f>
+        <v>721843</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -5942,7 +6004,6 @@
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
-      <c r="E43" s="23"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -5951,11 +6012,10 @@
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
-        <f>SUM(D41:D42)</f>
-        <v>690883</v>
+        <v>16</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -5964,118 +6024,97 @@
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C45" s="1"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="C45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="2">
+        <f>PRODUCT(D35,D44)</f>
+        <v>752000</v>
+      </c>
+      <c r="E45" s="23"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="2">
-        <v>15</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="C46" s="1"/>
+      <c r="E46" s="23"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D47" s="2">
-        <f>PRODUCT(D37,D46)</f>
-        <v>750000</v>
-      </c>
-      <c r="E47" s="23"/>
+        <v>20000</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>98</v>
+      </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C48" s="1"/>
       <c r="E48" s="23"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D49" s="2">
-        <v>0</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>63</v>
-      </c>
+        <v>54134</v>
+      </c>
+      <c r="E49" s="23"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="2">
+        <f>SUM(D45, -D42)</f>
+        <v>30157</v>
+      </c>
       <c r="E50" s="23"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D51" s="2">
-        <v>45321</v>
-      </c>
-      <c r="E51" s="23"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
+        <f>SUM(D47,D49,D50)</f>
+        <v>104291</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="2">
-        <f>SUM(D47, -D44)</f>
-        <v>59117</v>
-      </c>
       <c r="E52" s="23"/>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="2">
-        <f>SUM(D49,D51,D52)</f>
-        <v>104438</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>50</v>
-      </c>
+      <c r="E53" s="23"/>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E54" s="23"/>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E55" s="23"/>
+      <c r="C54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="2">
+        <f>D42/D44</f>
+        <v>45115.1875</v>
+      </c>
+      <c r="F54" s="8"/>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C56" s="2" t="s">
-        <v>68</v>
+      <c r="C56" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D56" s="2">
-        <f>D44/D46</f>
-        <v>46058.866666666669</v>
-      </c>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C58" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="2">
-        <f>D47-D44+D27</f>
-        <v>60217</v>
+        <f>D45-D42+D25</f>
+        <v>31257</v>
       </c>
     </row>
   </sheetData>
@@ -6087,8 +6126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F10B7CB-8681-4294-A7BC-A3E9D5C634C6}">
   <dimension ref="C2:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="C29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6103,7 +6142,7 @@
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6157,7 +6196,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E8" s="9">
         <v>30000</v>
@@ -6176,10 +6215,10 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="9">
         <v>57000</v>
@@ -6187,7 +6226,7 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
@@ -6198,10 +6237,10 @@
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" s="9">
         <v>165000</v>
@@ -6209,7 +6248,7 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>10</v>
@@ -6233,13 +6272,13 @@
         <v>12</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D17" s="8">
         <v>7200</v>
@@ -6248,7 +6287,7 @@
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="8">
         <v>1153</v>
@@ -6267,16 +6306,16 @@
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="8">
         <v>30</v>
@@ -6284,8 +6323,12 @@
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="8">
+        <v>11000</v>
+      </c>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
@@ -6295,16 +6338,16 @@
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C26" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8">
         <v>1100</v>
@@ -6323,16 +6366,16 @@
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C29" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C30" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" s="13">
         <v>3000</v>
@@ -6341,16 +6384,16 @@
     </row>
     <row r="31" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D31" s="15">
         <v>24460</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G31" s="18">
         <v>22500</v>
@@ -6359,8 +6402,14 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="8">
+        <v>250</v>
+      </c>
       <c r="F32" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G32" s="20">
         <v>160</v>
@@ -6370,7 +6419,7 @@
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F33" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G33" s="20">
         <v>300</v>
@@ -6380,7 +6429,7 @@
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F34" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G34" s="22">
         <v>1500</v>
@@ -6396,10 +6445,10 @@
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36" s="2">
-        <v>50000</v>
+        <v>47000</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="16"/>
@@ -6415,7 +6464,7 @@
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <f>SUM(D30:D31)</f>
@@ -6439,11 +6488,11 @@
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
-        <f>SUM(E5,E6,E7,E8,E9,E10,E11,E12,D17,D18,D22,D26,E13)</f>
-        <v>501483</v>
+        <f>SUM(E5,E6,E7,E8,E9,E10,E11,E12,D17,D18,D22:D23,D26,E13)</f>
+        <v>512483</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -6453,14 +6502,14 @@
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
-        <f>(SUM(D30:D31))*D45</f>
-        <v>823800</v>
+        <f>(SUM(D30:D32))*D45</f>
+        <v>969850</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -6479,11 +6528,11 @@
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2">
         <f>SUM(D40:D41)</f>
-        <v>1325283</v>
+        <v>1482333</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -6501,10 +6550,10 @@
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -6514,11 +6563,11 @@
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D46" s="2">
         <f>PRODUCT(D36,D45)</f>
-        <v>1500000</v>
+        <v>1645000</v>
       </c>
       <c r="E46" s="23"/>
       <c r="I46" s="8"/>
@@ -6532,14 +6581,12 @@
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
       </c>
-      <c r="E48" s="23" t="s">
-        <v>63</v>
-      </c>
+      <c r="E48" s="23"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
     </row>
@@ -6550,10 +6597,10 @@
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D50" s="2">
-        <v>104438</v>
+        <v>104291</v>
       </c>
       <c r="E50" s="23"/>
       <c r="I50" s="8"/>
@@ -6561,24 +6608,24 @@
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D51" s="2">
         <f>SUM(D46, -D43)</f>
-        <v>174717</v>
+        <v>162667</v>
       </c>
       <c r="E51" s="23"/>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D52" s="2">
         <f>SUM(D48,D50,D51)</f>
-        <v>279155</v>
+        <v>266958</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.3">
@@ -6589,21 +6636,21 @@
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C55" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D55" s="2">
         <f>D43/D45</f>
-        <v>44176.1</v>
+        <v>42352.37142857143</v>
       </c>
       <c r="F55" s="8"/>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D57" s="2">
         <f>D46-D43+D26</f>
-        <v>175817</v>
+        <v>163767</v>
       </c>
     </row>
   </sheetData>
@@ -6615,8 +6662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963C9AE4-4D88-42BA-90F4-1F4D6BAE1C94}">
   <dimension ref="B3:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6626,7 +6673,8 @@
     <col min="4" max="4" width="12.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="8" width="9" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.109375" style="2" customWidth="1"/>
@@ -6642,7 +6690,7 @@
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -6663,7 +6711,7 @@
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -6675,10 +6723,10 @@
         <v>8</v>
       </c>
       <c r="G5" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="3:16" s="26" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6697,57 +6745,57 @@
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="2">
-        <v>17013</v>
-      </c>
-      <c r="E8" s="2">
-        <v>117203</v>
-      </c>
-      <c r="F8" s="2">
-        <v>420463</v>
-      </c>
-      <c r="G8" s="2">
-        <v>690883</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1325283</v>
-      </c>
-      <c r="J8" s="2">
-        <v>-17013</v>
-      </c>
-      <c r="K8" s="2">
-        <v>-117203</v>
-      </c>
-      <c r="L8" s="2">
-        <v>-420463</v>
-      </c>
-      <c r="M8" s="2">
-        <v>-690883</v>
-      </c>
-      <c r="N8" s="2">
-        <v>-1325283</v>
+        <v>66</v>
+      </c>
+      <c r="D8" s="30">
+        <v>13813</v>
+      </c>
+      <c r="E8" s="30">
+        <v>110703</v>
+      </c>
+      <c r="F8" s="30">
+        <v>385163</v>
+      </c>
+      <c r="G8" s="30">
+        <v>721843</v>
+      </c>
+      <c r="H8" s="30">
+        <v>1482333</v>
+      </c>
+      <c r="J8" s="30">
+        <v>-13813</v>
+      </c>
+      <c r="K8" s="30">
+        <v>-110703</v>
+      </c>
+      <c r="L8" s="30">
+        <v>-385163</v>
+      </c>
+      <c r="M8" s="30">
+        <v>-721843</v>
+      </c>
+      <c r="N8" s="30">
+        <v>-1482333</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F9" s="2">
-        <v>400000</v>
-      </c>
-      <c r="G9" s="2">
-        <v>750000</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1500000</v>
+      <c r="E9" s="30">
+        <v>94000</v>
+      </c>
+      <c r="F9" s="30">
+        <v>376000</v>
+      </c>
+      <c r="G9" s="30">
+        <v>752000</v>
+      </c>
+      <c r="H9" s="30">
+        <v>1645000</v>
       </c>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
@@ -6756,59 +6804,51 @@
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2">
-        <v>25000</v>
-      </c>
-      <c r="E10" s="2">
-        <v>25000</v>
-      </c>
-      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <v>30000</v>
+      </c>
+      <c r="F10" s="30">
         <v>50000</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
+      <c r="G10" s="30">
+        <v>20000</v>
+      </c>
+      <c r="H10" s="30">
+        <v>20000</v>
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="2">
-        <v>7987</v>
-      </c>
-      <c r="E11" s="2">
-        <v>15784</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45321</v>
-      </c>
-      <c r="G11" s="2">
-        <v>104438</v>
-      </c>
-      <c r="H11" s="2">
-        <v>279155</v>
+        <v>69</v>
+      </c>
+      <c r="D11" s="30">
+        <v>-13813</v>
+      </c>
+      <c r="E11" s="30">
+        <v>13297</v>
+      </c>
+      <c r="F11" s="30">
+        <v>54134</v>
+      </c>
+      <c r="G11" s="30">
+        <v>104291</v>
+      </c>
+      <c r="H11" s="30">
+        <v>266958</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2">
-        <v>27460</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2">
-        <v>50000</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>

--- a/Costi e Ricavi.xlsx
+++ b/Costi e Ricavi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rudy\Progetto gestione\StartupDesignLab-B-Real\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48C0CE1-3F75-408E-8EB6-0FFE24168B0D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B256F7C-3616-49B9-94A6-18A0ABEC41CF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" tabRatio="780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" tabRatio="780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANNO 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="100">
   <si>
     <t>COSTI ANNO 1</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>1 x Leap Motion Controller</t>
-  </si>
-  <si>
-    <t>3 x telecamere Sony</t>
   </si>
   <si>
     <t xml:space="preserve">Componenti da integrare col monitor (scheda madre, scheda video, scheda audio, processore, …) </t>
@@ -396,12 +393,18 @@
   <si>
     <t>3o  round e ultimo (totale 100 mila)</t>
   </si>
+  <si>
+    <t>10 x telecamere D-Link</t>
+  </si>
+  <si>
+    <t>4 x telecamere D-Link</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +437,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -596,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -682,6 +693,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -825,19 +839,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13813</c:v>
+                  <c:v>14113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110703</c:v>
+                  <c:v>113103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>385163</c:v>
+                  <c:v>394763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>721843</c:v>
+                  <c:v>741043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1482333</c:v>
+                  <c:v>1524333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,19 +1397,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-13813</c:v>
+                  <c:v>-14113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-110703</c:v>
+                  <c:v>-113103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-385163</c:v>
+                  <c:v>-394763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-721843</c:v>
+                  <c:v>-741043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1482333</c:v>
+                  <c:v>-1524333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1736,19 +1750,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-13813</c:v>
+                  <c:v>-14113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13297</c:v>
+                  <c:v>10897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54134</c:v>
+                  <c:v>42134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104291</c:v>
+                  <c:v>73091</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>266958</c:v>
+                  <c:v>193758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3455,12 +3469,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35694</cdr:x>
-      <cdr:y>0.69218</cdr:y>
+      <cdr:x>0.43079</cdr:x>
+      <cdr:y>0.62066</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.35914</cdr:x>
-      <cdr:y>0.89105</cdr:y>
+      <cdr:x>0.43331</cdr:x>
+      <cdr:y>0.89132</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3474,9 +3488,9 @@
         <cdr:cNvCxnSpPr/>
       </cdr:nvCxnSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2796478" y="3346384"/>
-          <a:ext cx="17238" cy="961432"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="3363983" y="3105103"/>
+          <a:ext cx="19680" cy="1354074"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3506,12 +3520,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.34677</cdr:x>
-      <cdr:y>0.66703</cdr:y>
+      <cdr:x>0.42738</cdr:x>
+      <cdr:y>0.59948</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.36231</cdr:x>
-      <cdr:y>0.69159</cdr:y>
+      <cdr:x>0.44292</cdr:x>
+      <cdr:y>0.62404</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3526,8 +3540,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2716840" y="3224794"/>
-          <a:ext cx="121749" cy="118735"/>
+          <a:off x="3337377" y="2999159"/>
+          <a:ext cx="121351" cy="122872"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
           <a:avLst/>
@@ -3568,12 +3582,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.16716</cdr:x>
-      <cdr:y>0.47474</cdr:y>
+      <cdr:x>0.25116</cdr:x>
+      <cdr:y>0.40852</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.23033</cdr:x>
-      <cdr:y>0.54166</cdr:y>
+      <cdr:x>0.31433</cdr:x>
+      <cdr:y>0.47544</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3588,8 +3602,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1309609" y="2295149"/>
-          <a:ext cx="494915" cy="323526"/>
+          <a:off x="1961322" y="2043776"/>
+          <a:ext cx="493289" cy="334794"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3625,12 +3639,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.23022</cdr:x>
-      <cdr:y>0.50861</cdr:y>
+      <cdr:x>0.31284</cdr:x>
+      <cdr:y>0.44239</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.28371</cdr:x>
-      <cdr:y>0.50934</cdr:y>
+      <cdr:x>0.36262</cdr:x>
+      <cdr:y>0.44365</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3645,8 +3659,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="1803706" y="2458879"/>
-          <a:ext cx="419031" cy="3518"/>
+          <a:off x="2442956" y="2213224"/>
+          <a:ext cx="388738" cy="6336"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3676,12 +3690,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28256</cdr:x>
-      <cdr:y>0.51046</cdr:y>
+      <cdr:x>0.36317</cdr:x>
+      <cdr:y>0.44291</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.34905</cdr:x>
-      <cdr:y>0.67063</cdr:y>
+      <cdr:x>0.42966</cdr:x>
+      <cdr:y>0.60308</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3698,8 +3712,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2213772" y="2467843"/>
-          <a:ext cx="520898" cy="774339"/>
+          <a:off x="2835967" y="2215854"/>
+          <a:ext cx="519215" cy="801316"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -4031,7 +4045,7 @@
   <dimension ref="C2:J54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4138,7 +4152,7 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="8">
         <f>7200/4</f>
@@ -4170,7 +4184,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="9"/>
     </row>
@@ -4207,7 +4221,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="9"/>
     </row>
@@ -4233,7 +4247,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="9"/>
     </row>
@@ -4251,13 +4265,13 @@
         <v>22</v>
       </c>
       <c r="D28" s="15">
-        <v>9380</v>
+        <v>9680</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="18">
         <v>7500</v>
@@ -4277,17 +4291,18 @@
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F30" s="19" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="G30" s="20">
-        <v>300</v>
+        <f>150*4</f>
+        <v>600</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F31" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" s="22">
         <v>1500</v>
@@ -4297,13 +4312,16 @@
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F32" s="24"/>
-      <c r="G32" s="8"/>
+      <c r="G32" s="8">
+        <f>SUM(G28:G31)</f>
+        <v>9680</v>
+      </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2">
         <v>47000</v>
@@ -4322,14 +4340,14 @@
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
         <f>SUM(D27:D28)</f>
-        <v>10630</v>
+        <v>10930</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -4348,7 +4366,7 @@
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <f>SUM(E5:E9,D13:D14,D18:D19,D23)</f>
@@ -4362,14 +4380,14 @@
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <f>(SUM(D27:D28))</f>
-        <v>10630</v>
+        <v>10930</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -4388,11 +4406,11 @@
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <f>SUM(D37:D38)</f>
-        <v>13813</v>
+        <v>14113</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -4418,7 +4436,7 @@
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
@@ -4431,7 +4449,7 @@
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="2">
         <f>PRODUCT(D33,D43)</f>
@@ -4447,13 +4465,13 @@
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" s="2">
         <v>0</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -4464,26 +4482,26 @@
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="2">
-        <f>-13813</f>
-        <v>-13813</v>
+        <f>-14113</f>
+        <v>-14113</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="2">
         <f>SUM(D46:D48)</f>
-        <v>-13813</v>
+        <v>-14113</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.3">
@@ -4494,13 +4512,13 @@
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>63</v>
       </c>
       <c r="F52" s="8"/>
     </row>
@@ -4517,7 +4535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA967C84-4B8F-44E2-85F4-D0AD393A93F8}">
   <dimension ref="C2:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -4533,7 +4551,7 @@
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4565,7 +4583,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
@@ -4606,17 +4624,17 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="9">
         <f>57000/2</f>
         <v>28500</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
@@ -4640,7 +4658,7 @@
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="8">
         <f>7200/2</f>
@@ -4687,7 +4705,7 @@
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="8">
         <v>11000</v>
@@ -4704,13 +4722,13 @@
         <v>19</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -4719,7 +4737,7 @@
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="8">
         <v>11000</v>
@@ -4736,13 +4754,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C27" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="13">
         <v>3000</v>
@@ -4751,16 +4769,16 @@
     </row>
     <row r="28" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="15">
-        <v>24460</v>
+        <v>25660</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" s="18">
         <v>22500</v>
@@ -4770,7 +4788,7 @@
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8">
         <v>250</v>
@@ -4783,7 +4801,7 @@
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F30" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" s="20">
         <v>160</v>
@@ -4793,17 +4811,17 @@
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F31" s="19" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="G31" s="20">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F32" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="22">
         <v>1500</v>
@@ -4813,13 +4831,16 @@
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F33" s="24"/>
-      <c r="G33" s="8"/>
+      <c r="G33" s="8">
+        <f>SUM(G28:G32)</f>
+        <v>25660</v>
+      </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2">
         <v>47000</v>
@@ -4838,11 +4859,11 @@
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2">
         <f>SUM(D27:D28)</f>
-        <v>27460</v>
+        <v>28660</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="8"/>
@@ -4862,7 +4883,7 @@
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <f>SUM(E5:E10,D14:D15,D19:D20,D23:D24)</f>
@@ -4876,14 +4897,14 @@
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
         <f>(SUM(D27:D29))*D43</f>
-        <v>55420</v>
+        <v>57820</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -4902,11 +4923,11 @@
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <f>SUM(D38:D39)</f>
-        <v>110703</v>
+        <v>113103</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -4924,7 +4945,7 @@
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>2</v>
@@ -4937,7 +4958,7 @@
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="2">
         <f>PRODUCT(D34,D43)</f>
@@ -4955,13 +4976,13 @@
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D46" s="2">
         <v>30000</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -4973,7 +4994,7 @@
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
@@ -4984,24 +5005,24 @@
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" s="2">
         <f>SUM(D44,-D41)</f>
-        <v>-16703</v>
+        <v>-19103</v>
       </c>
       <c r="E49" s="23"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="2">
         <f>SUM(D46,D48,D49)</f>
-        <v>13297</v>
+        <v>10897</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.3">
@@ -5012,21 +5033,21 @@
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" s="25">
         <f>D41/D43</f>
-        <v>55351.5</v>
+        <v>56551.5</v>
       </c>
       <c r="F53" s="8"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" s="2">
         <f>D44-D41+D23</f>
-        <v>-16703</v>
+        <v>-19103</v>
       </c>
     </row>
   </sheetData>
@@ -5038,7 +5059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CC4158-9D4B-44D9-9B3D-2AC0C9797405}">
   <dimension ref="C2:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -5054,7 +5075,7 @@
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -5086,7 +5107,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
@@ -5108,7 +5129,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
@@ -5127,10 +5148,10 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="E10" s="9">
         <v>57000</v>
@@ -5138,7 +5159,7 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
@@ -5149,10 +5170,10 @@
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E12" s="9">
         <v>33000</v>
@@ -5179,7 +5200,7 @@
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="8">
         <v>7200</v>
@@ -5188,7 +5209,7 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="8">
         <v>1500</v>
@@ -5197,7 +5218,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="8">
         <v>10000</v>
@@ -5228,7 +5249,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="9"/>
     </row>
@@ -5243,7 +5264,7 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="8">
         <v>11000</v>
@@ -5260,13 +5281,13 @@
         <v>19</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8">
         <v>1100</v>
@@ -5275,7 +5296,7 @@
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="8">
         <v>500</v>
@@ -5284,7 +5305,7 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8">
         <v>11000</v>
@@ -5301,13 +5322,13 @@
         <v>21</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C32" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="13">
         <v>3000</v>
@@ -5316,16 +5337,16 @@
     </row>
     <row r="33" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="15">
-        <v>24460</v>
+        <v>25660</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" s="18">
         <v>22500</v>
@@ -5335,13 +5356,13 @@
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C34" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="8">
         <v>250</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" s="20">
         <v>160</v>
@@ -5351,17 +5372,17 @@
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F35" s="19" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="G35" s="20">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F36" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" s="22">
         <v>1500</v>
@@ -5377,7 +5398,7 @@
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2">
         <v>47000</v>
@@ -5396,11 +5417,11 @@
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
         <f>SUM(D32:D33)</f>
-        <v>27460</v>
+        <v>28660</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="8"/>
@@ -5420,7 +5441,7 @@
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <f>SUM(E5,E6,E7,E8,E9,E10,E11,E12,D16:D18,D19,D23:D24,D27,D28:D29)</f>
@@ -5434,14 +5455,14 @@
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2">
         <f>(SUM(D32:D34))*D47</f>
-        <v>221680</v>
+        <v>231280</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -5460,11 +5481,11 @@
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <f>SUM(D42:D43)</f>
-        <v>385163</v>
+        <v>394763</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -5482,7 +5503,7 @@
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>8</v>
@@ -5495,7 +5516,7 @@
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2">
         <f>PRODUCT(D38,D47)</f>
@@ -5513,13 +5534,13 @@
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D50" s="2">
         <v>50000</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -5531,10 +5552,10 @@
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D52" s="2">
-        <v>13297</v>
+        <v>10897</v>
       </c>
       <c r="E52" s="23"/>
       <c r="I52" s="8"/>
@@ -5542,24 +5563,24 @@
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" s="2">
         <f>SUM(D48,-D45)</f>
-        <v>-9163</v>
+        <v>-18763</v>
       </c>
       <c r="E53" s="23"/>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" s="2">
         <f>SUM(D50,D52,D53)</f>
-        <v>54134</v>
+        <v>42134</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.3">
@@ -5570,21 +5591,21 @@
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C57" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="2">
         <f>D45/D47</f>
-        <v>48145.375</v>
+        <v>49345.375</v>
       </c>
       <c r="F57" s="8"/>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D59" s="2">
         <f>D48-D45+D27</f>
-        <v>-8063</v>
+        <v>-17663</v>
       </c>
     </row>
   </sheetData>
@@ -5596,8 +5617,539 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8565FF41-660E-416E-A437-DBF6B7CF7B7E}">
   <dimension ref="C2:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="49.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="38.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="9">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="9">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="9">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="9">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="9">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="8">
+        <v>7200</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1153</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8">
+        <v>30</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="8">
+        <v>11000</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1100</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="13">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="15">
+        <v>25660</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="18">
+        <v>22500</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="8">
+        <v>250</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="20">
+        <v>160</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="F32" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="20">
+        <v>1500</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F33" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="22">
+        <v>1500</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F34" s="24"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="2">
+        <v>47000</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="2">
+        <f>SUM(D29:D30)</f>
+        <v>28660</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C38" s="1"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="2">
+        <f>SUM(E5,E6,E7,E8,E9,E10,E11,E12,D16,D17,D21,D25,D22)</f>
+        <v>278483</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="2">
+        <f>(SUM(D29:D31))*D44</f>
+        <v>462560</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="1"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="2">
+        <f>SUM(D39:D40)</f>
+        <v>741043</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C43" s="1"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="2">
+        <v>16</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="31">
+        <f>PRODUCT(D35,D44)</f>
+        <v>752000</v>
+      </c>
+      <c r="E45" s="23"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C46" s="1"/>
+      <c r="E46" s="23"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E48" s="23"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="2">
+        <v>42134</v>
+      </c>
+      <c r="E49" s="23"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="2">
+        <f>SUM(D45, -D42)</f>
+        <v>10957</v>
+      </c>
+      <c r="E50" s="23"/>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="2">
+        <f>SUM(D47,D49,D50)</f>
+        <v>73091</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="2">
+        <f>D42/D44</f>
+        <v>46315.1875</v>
+      </c>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="2">
+        <f>D45-D42+D25</f>
+        <v>12057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F10B7CB-8681-4294-A7BC-A3E9D5C634C6}">
+  <dimension ref="C2:J57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5636,7 +6188,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="9">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
@@ -5644,10 +6196,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E6" s="9">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
@@ -5658,7 +6210,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="9">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
@@ -5666,10 +6218,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="9">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
@@ -5680,15 +6232,15 @@
         <v>11</v>
       </c>
       <c r="E9" s="9">
-        <v>15000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="E10" s="9">
         <v>57000</v>
@@ -5696,69 +6248,72 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" s="7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="9">
-        <v>60000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="9">
-        <v>66000</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="9">
+        <v>30000</v>
+      </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="8">
-        <v>7200</v>
-      </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="8">
+        <v>7200</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>1153</v>
       </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
@@ -5767,58 +6322,58 @@
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="8">
-        <v>30</v>
+      <c r="D21" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22" s="7" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="D22" s="8">
+        <v>30</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="8">
         <v>11000</v>
       </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="D25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="8">
         <v>1100</v>
       </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
@@ -5827,539 +6382,6 @@
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="13">
-        <v>3000</v>
-      </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="15">
-        <v>24460</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="18">
-        <v>22500</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="8">
-        <v>250</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="20">
-        <v>160</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F32" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="20">
-        <v>300</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F33" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="22">
-        <v>1500</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F34" s="24"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="2">
-        <v>47000</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="2">
-        <f>SUM(D29:D30)</f>
-        <v>27460</v>
-      </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C38" s="1"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="2">
-        <f>SUM(E5,E6,E7,E8,E9,E10,E11,E12,D16,D17,D21,D25,D22)</f>
-        <v>278483</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="2">
-        <f>(SUM(D29:D31))*D44</f>
-        <v>443360</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C41" s="1"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="2">
-        <f>SUM(D39:D40)</f>
-        <v>721843</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C43" s="1"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="2">
-        <v>16</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="2">
-        <f>PRODUCT(D35,D44)</f>
-        <v>752000</v>
-      </c>
-      <c r="E45" s="23"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C46" s="1"/>
-      <c r="E46" s="23"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C47" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E48" s="23"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C49" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="2">
-        <v>54134</v>
-      </c>
-      <c r="E49" s="23"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="2">
-        <f>SUM(D45, -D42)</f>
-        <v>30157</v>
-      </c>
-      <c r="E50" s="23"/>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="2">
-        <f>SUM(D47,D49,D50)</f>
-        <v>104291</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E52" s="23"/>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E53" s="23"/>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="2">
-        <f>D42/D44</f>
-        <v>45115.1875</v>
-      </c>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C56" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="2">
-        <f>D45-D42+D25</f>
-        <v>31257</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F10B7CB-8681-4294-A7BC-A3E9D5C634C6}">
-  <dimension ref="C2:J57"/>
-  <sheetViews>
-    <sheetView topLeftCell="C29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="49.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="38.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="9">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="9">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="9">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="9">
-        <v>57000</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="9">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="9">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="9">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="8">
-        <v>7200</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1153</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="8">
-        <v>30</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="8">
-        <v>11000</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1100</v>
-      </c>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
@@ -6375,7 +6397,7 @@
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C30" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="13">
         <v>3000</v>
@@ -6384,16 +6406,16 @@
     </row>
     <row r="31" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="15">
-        <v>24460</v>
+        <v>25660</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" s="18">
         <v>22500</v>
@@ -6403,13 +6425,13 @@
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C32" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="8">
         <v>250</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G32" s="20">
         <v>160</v>
@@ -6419,17 +6441,17 @@
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F33" s="19" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="G33" s="20">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F34" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G34" s="22">
         <v>1500</v>
@@ -6445,7 +6467,7 @@
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2">
         <v>47000</v>
@@ -6464,11 +6486,11 @@
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
         <f>SUM(D30:D31)</f>
-        <v>27460</v>
+        <v>28660</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="8"/>
@@ -6488,7 +6510,7 @@
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <f>SUM(E5,E6,E7,E8,E9,E10,E11,E12,D17,D18,D22:D23,D26,E13)</f>
@@ -6502,14 +6524,14 @@
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2">
         <f>(SUM(D30:D32))*D45</f>
-        <v>969850</v>
+        <v>1011850</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -6528,11 +6550,11 @@
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <f>SUM(D40:D41)</f>
-        <v>1482333</v>
+        <v>1524333</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -6550,7 +6572,7 @@
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>35</v>
@@ -6563,7 +6585,7 @@
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="2">
         <f>PRODUCT(D36,D45)</f>
@@ -6581,7 +6603,7 @@
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
@@ -6597,10 +6619,10 @@
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D50" s="2">
-        <v>104291</v>
+        <v>73091</v>
       </c>
       <c r="E50" s="23"/>
       <c r="I50" s="8"/>
@@ -6608,24 +6630,24 @@
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="2">
         <f>SUM(D46, -D43)</f>
-        <v>162667</v>
+        <v>120667</v>
       </c>
       <c r="E51" s="23"/>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="2">
         <f>SUM(D48,D50,D51)</f>
-        <v>266958</v>
+        <v>193758</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.3">
@@ -6636,21 +6658,21 @@
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C55" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D55" s="2">
         <f>D43/D45</f>
-        <v>42352.37142857143</v>
+        <v>43552.37142857143</v>
       </c>
       <c r="F55" s="8"/>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D57" s="2">
         <f>D46-D43+D26</f>
-        <v>163767</v>
+        <v>121767</v>
       </c>
     </row>
   </sheetData>
@@ -6662,8 +6684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963C9AE4-4D88-42BA-90F4-1F4D6BAE1C94}">
   <dimension ref="B3:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6690,7 +6712,7 @@
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -6711,7 +6733,7 @@
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -6745,42 +6767,42 @@
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="30">
-        <v>13813</v>
+        <v>14113</v>
       </c>
       <c r="E8" s="30">
-        <v>110703</v>
+        <v>113103</v>
       </c>
       <c r="F8" s="30">
-        <v>385163</v>
+        <v>394763</v>
       </c>
       <c r="G8" s="30">
-        <v>721843</v>
+        <v>741043</v>
       </c>
       <c r="H8" s="30">
-        <v>1482333</v>
+        <v>1524333</v>
       </c>
       <c r="J8" s="30">
-        <v>-13813</v>
+        <v>-14113</v>
       </c>
       <c r="K8" s="30">
-        <v>-110703</v>
+        <v>-113103</v>
       </c>
       <c r="L8" s="30">
-        <v>-385163</v>
+        <v>-394763</v>
       </c>
       <c r="M8" s="30">
-        <v>-721843</v>
+        <v>-741043</v>
       </c>
       <c r="N8" s="30">
-        <v>-1482333</v>
+        <v>-1524333</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -6804,7 +6826,7 @@
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -6824,22 +6846,22 @@
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="30">
-        <v>-13813</v>
+        <v>-14113</v>
       </c>
       <c r="E11" s="30">
-        <v>13297</v>
+        <v>10897</v>
       </c>
       <c r="F11" s="30">
-        <v>54134</v>
+        <v>42134</v>
       </c>
       <c r="G11" s="30">
-        <v>104291</v>
+        <v>73091</v>
       </c>
       <c r="H11" s="30">
-        <v>266958</v>
+        <v>193758</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">

--- a/Costi e Ricavi.xlsx
+++ b/Costi e Ricavi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rudy\Progetto gestione\StartupDesignLab-B-Real\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B256F7C-3616-49B9-94A6-18A0ABEC41CF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956C392A-6CC3-4B37-82FE-218EA160E6A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" tabRatio="780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" tabRatio="780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANNO 1" sheetId="1" r:id="rId1"/>
@@ -607,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -697,6 +697,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4044,8 +4062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G31" sqref="F28:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4270,30 +4288,30 @@
       <c r="E28" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="33">
         <v>7500</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="35">
         <v>80</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="35">
         <f>150*4</f>
         <v>600</v>
       </c>
@@ -4301,10 +4319,10 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="37">
         <v>1500</v>
       </c>
       <c r="H31" s="8"/>
@@ -6148,7 +6166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F10B7CB-8681-4294-A7BC-A3E9D5C634C6}">
   <dimension ref="C2:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>

--- a/Costi e Ricavi.xlsx
+++ b/Costi e Ricavi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rudy\Progetto gestione\StartupDesignLab-B-Real\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956C392A-6CC3-4B37-82FE-218EA160E6A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAA5EC9-BE8C-4BF6-80F8-C03A6967E9A1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" tabRatio="780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" tabRatio="780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANNO 1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,14 +437,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -695,9 +687,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -715,6 +704,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,8 +763,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Grafico Break-Even Point (BEP)</a:t>
+              <a:t>Grafico Costi e Ricavi - Break-even</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> point</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1025,8 +1022,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.37145699543069693"/>
-              <c:y val="0.95272014252123005"/>
+              <c:x val="0.41041850709889677"/>
+              <c:y val="0.95272024138864619"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1146,8 +1143,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0303741312810227E-2"/>
-              <c:y val="0.41508628045154378"/>
+              <c:x val="7.0569058343368761E-3"/>
+              <c:y val="0.46089668659735522"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1235,9 +1232,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.82181356466721589"/>
-          <c:y val="0.7447515526344366"/>
-          <c:w val="0.12314954666869567"/>
+          <c:x val="0.78285215471020064"/>
+          <c:y val="0.72439138322531671"/>
+          <c:w val="0.17818639296842934"/>
           <c:h val="9.7759119733455732E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1254,7 +1251,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1348,8 +1345,12 @@
             <a:solidFill>
               <a:srgbClr val="C00000"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1448,8 +1449,12 @@
             <a:solidFill>
               <a:srgbClr val="008000"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1542,14 +1547,18 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Fondi</c:v>
+            <c:v>Fondi investimento</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="0070C0"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="74000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1701,8 +1710,12 @@
             <a:solidFill>
               <a:srgbClr val="FF9900"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1826,7 +1839,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1700000.0000000002"/>
-          <c:min val="-1500000"/>
+          <c:min val="-1600000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1905,9 +1918,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.9591623029378018E-2"/>
-          <c:y val="3.8205672943623717E-2"/>
-          <c:w val="0.12054396959239776"/>
+          <c:x val="8.0060266585926743E-2"/>
+          <c:y val="7.1626726745544864E-2"/>
+          <c:w val="0.24139430158764488"/>
           <c:h val="0.18138337725864506"/>
         </c:manualLayout>
       </c:layout>
@@ -1924,7 +1937,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3234,10 +3247,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>819657</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>3851</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>178022</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="714298" cy="311496"/>
     <xdr:sp macro="" textlink="">
@@ -3253,7 +3266,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19527226">
-          <a:off x="12411022" y="5920557"/>
+          <a:off x="12859257" y="6230479"/>
           <a:ext cx="714298" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3297,7 +3310,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1234904</xdr:colOff>
+      <xdr:colOff>1321990</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>169291</xdr:rowOff>
     </xdr:from>
@@ -3315,7 +3328,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19527226">
-          <a:off x="14368198" y="5906703"/>
+          <a:off x="14765847" y="6221748"/>
           <a:ext cx="714298" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3359,9 +3372,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>437832</xdr:colOff>
+      <xdr:colOff>535803</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>2423</xdr:rowOff>
+      <xdr:rowOff>13309</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="714298" cy="311496"/>
     <xdr:sp macro="" textlink="">
@@ -3377,7 +3390,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19527226">
-          <a:off x="16363632" y="6239937"/>
+          <a:off x="16777289" y="6250823"/>
           <a:ext cx="714298" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3421,9 +3434,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>2576</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>167369</xdr:rowOff>
+      <xdr:colOff>209405</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4084</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="714298" cy="311496"/>
     <xdr:sp macro="" textlink="">
@@ -3439,7 +3452,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19527226">
-          <a:off x="18366776" y="6219826"/>
+          <a:off x="18889291" y="6241598"/>
           <a:ext cx="714298" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3487,63 +3500,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.43079</cdr:x>
-      <cdr:y>0.62066</cdr:y>
+      <cdr:x>0.41486</cdr:x>
+      <cdr:y>0.5887</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.43331</cdr:x>
-      <cdr:y>0.89132</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="6" name="Connettore diritto 5">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493DA77E-5CEF-48B1-AA12-AD4E3944D76B}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="3363983" y="3105103"/>
-          <a:ext cx="19680" cy="1354074"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.42738</cdr:x>
-      <cdr:y>0.59948</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.44292</cdr:x>
-      <cdr:y>0.62404</cdr:y>
+      <cdr:x>0.44239</cdr:x>
+      <cdr:y>0.63763</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3558,8 +3520,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3337377" y="2999159"/>
-          <a:ext cx="121351" cy="122872"/>
+          <a:off x="3245472" y="2937677"/>
+          <a:ext cx="215422" cy="244189"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
           <a:avLst/>
@@ -3600,12 +3562,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.25116</cdr:x>
-      <cdr:y>0.40852</cdr:y>
+      <cdr:x>0.23859</cdr:x>
+      <cdr:y>0.42252</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.31433</cdr:x>
-      <cdr:y>0.47544</cdr:y>
+      <cdr:x>0.30176</cdr:x>
+      <cdr:y>0.48944</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3620,8 +3582,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1961322" y="2043776"/>
-          <a:ext cx="493289" cy="334794"/>
+          <a:off x="1866518" y="2108429"/>
+          <a:ext cx="494187" cy="333939"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3657,12 +3619,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.31284</cdr:x>
-      <cdr:y>0.44239</cdr:y>
+      <cdr:x>0.30027</cdr:x>
+      <cdr:y>0.45744</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.36262</cdr:x>
-      <cdr:y>0.44365</cdr:y>
+      <cdr:x>0.35018</cdr:x>
+      <cdr:y>0.45765</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3677,8 +3639,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="2442956" y="2213224"/>
-          <a:ext cx="388738" cy="6336"/>
+          <a:off x="2349049" y="2282673"/>
+          <a:ext cx="390421" cy="1061"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3708,12 +3670,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.36317</cdr:x>
-      <cdr:y>0.44291</cdr:y>
+      <cdr:x>0.35065</cdr:x>
+      <cdr:y>0.4565</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.42966</cdr:x>
-      <cdr:y>0.60308</cdr:y>
+      <cdr:x>0.41889</cdr:x>
+      <cdr:y>0.59586</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -3730,8 +3692,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2835967" y="2215854"/>
-          <a:ext cx="519215" cy="801316"/>
+          <a:off x="2743149" y="2278004"/>
+          <a:ext cx="533871" cy="695434"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -4062,8 +4024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G31" sqref="F28:G31"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4288,30 +4250,30 @@
       <c r="E28" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="32">
         <v>7500</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="34">
         <v>80</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="34">
         <f>150*4</f>
         <v>600</v>
       </c>
@@ -4319,10 +4281,10 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="36">
         <v>1500</v>
       </c>
       <c r="H31" s="8"/>
@@ -4553,8 +4515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA967C84-4B8F-44E2-85F4-D0AD393A93F8}">
   <dimension ref="C2:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5077,8 +5039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CC4158-9D4B-44D9-9B3D-2AC0C9797405}">
   <dimension ref="C2:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="C28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5635,8 +5597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8565FF41-660E-416E-A437-DBF6B7CF7B7E}">
   <dimension ref="C2:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6066,7 +6028,7 @@
       <c r="C45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="37">
         <f>PRODUCT(D35,D44)</f>
         <v>752000</v>
       </c>
@@ -6164,10 +6126,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F10B7CB-8681-4294-A7BC-A3E9D5C634C6}">
-  <dimension ref="C2:J57"/>
+  <dimension ref="C2:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="C26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="C34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6693,6 +6655,12 @@
         <v>121767</v>
       </c>
     </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C64" s="2">
+        <f>121767/12057</f>
+        <v>10.099278427469519</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6702,8 +6670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963C9AE4-4D88-42BA-90F4-1F4D6BAE1C94}">
   <dimension ref="B3:P17"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
